--- a/DDAf_2024_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9299CF3D-613D-448F-B73C-40FB4E8B6200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68D562BD-9CA6-44BC-BFF4-0F31CE15F94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{94C51E8F-79F0-47A1-885A-869219BFD345}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3395D8-0377-4C1A-965B-6AEAFF936377}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -1542,20 +1542,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24132920-2333-4544-97CA-4D260450AC80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99466F07-B229-488C-A75A-0840334699D9}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="95" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1582,7 +1582,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="6"/>
     </row>
-    <row r="2" spans="1:24" ht="95" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="102" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>9.6003225373820005</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>2.16037814933031</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>2.2620371730267199</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1.72005327231218</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>2.5230791340190302</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>1.66118468407695</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>2.34968556942373</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>8.6223374009531497</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>41</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>5.2503318846597002</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>4.0528677516692397</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>45</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>7.74850095881221</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>47</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>2.26047898562667</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>3.32618775482781</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>51</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>4.3452407769918597</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>53</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>2.83183639779514</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>55</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>9.6660072488609892</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>57</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>3.88109398385587</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>59</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>62</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>6.3893695795246401</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>64</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>8.5836991891558405</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>45</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>4.2592854453648901</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>67</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>69</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>1.31971921725313</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>71</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>5.5346344275114499</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>73</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>0.97698705393009999</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>75</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1.8765269735116901</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>77</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>3.8318985115062598</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>79</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>4.40959296993754</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>81</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0.83296093885316003</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>83</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>4.6515282016655899</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>85</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0.11688886428516</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>87</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>5.7001206006026397</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>89</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>1.8407283738297999</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>91</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>4.0978633808696197</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>93</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>0.74899296937978999</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
         <v>45</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1.9986824850465701</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>96</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>16.8702963345021</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>98</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>3.1780960386252</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>100</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>10.133806763762999</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>102</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>7.7396696604437096</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>104</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>5.7873382786055103</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>106</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>5.87021193252665</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
         <v>45</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>7.28578907361626</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>109</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>0.66595270889488001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>111</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>0.68810965949473002</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>113</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>1.64895628598299</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>115</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>4.8160459479922704</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>117</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>1.6768718741781901</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>119</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>4.2057425018295698</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>121</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>7.2383548345652402</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>123</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>125</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>7.7316882277245904</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>127</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>1.25675261817993</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>129</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>1.1837920796610399</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>131</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>3.9474018611144701</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>133</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>2.6706745166796</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>135</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>2.3567945117731002</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>137</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>1.9430443679724201</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
       <c r="B61" s="37" t="s">
         <v>139</v>
@@ -6020,7 +6020,7 @@
         <v>3.7475505785827199</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="59"/>
       <c r="B62" s="60" t="s">
         <v>140</v>
@@ -6092,7 +6092,7 @@
         <v>5.5231443280526902</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="59"/>
       <c r="B63" s="65" t="s">
         <v>141</v>
@@ -6164,7 +6164,7 @@
         <v>3.3837925189167102</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="69"/>
       <c r="B64" s="70" t="s">
         <v>142</v>
@@ -6236,7 +6236,7 @@
         <v>3.4205731095809</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="69"/>
       <c r="B65" s="65" t="s">
         <v>143</v>
@@ -6308,7 +6308,7 @@
         <v>4.5837597434033199</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="69"/>
       <c r="B66" s="78" t="s">
         <v>144</v>
@@ -6380,7 +6380,7 @@
         <v>3.4946593807110502</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="69"/>
       <c r="B67" s="65" t="s">
         <v>145</v>
@@ -6452,7 +6452,7 @@
         <v>3.2383564824987299</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="69"/>
       <c r="B68" s="65" t="s">
         <v>146</v>
@@ -6524,7 +6524,7 @@
         <v>3.9472497093249399</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="69"/>
       <c r="B69" s="65" t="s">
         <v>147</v>
@@ -6596,7 +6596,7 @@
         <v>2.5401999881305</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="69"/>
       <c r="B70" s="65" t="s">
         <v>148</v>
@@ -6668,7 +6668,7 @@
         <v>6.1859806320933899</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="69"/>
       <c r="B71" s="65" t="s">
         <v>149</v>
@@ -6740,7 +6740,7 @@
         <v>3.7475505785827101</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="69"/>
       <c r="B72" s="65" t="s">
         <v>150</v>
@@ -6812,7 +6812,7 @@
         <v>1.4141456292615699</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="69"/>
       <c r="B73" s="65" t="s">
         <v>151</v>
@@ -6884,7 +6884,7 @@
         <v>6.9794729823638502</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="69"/>
       <c r="B74" s="65" t="s">
         <v>151</v>
@@ -6956,7 +6956,7 @@
         <v>11.677801550102201</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="69"/>
       <c r="B75" s="65" t="s">
         <v>152</v>
@@ -7028,7 +7028,7 @@
         <v>8.2558367913757191</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="69"/>
       <c r="B76" s="83" t="s">
         <v>153</v>
@@ -7100,7 +7100,7 @@
         <v>5.1918804277278197</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="69"/>
       <c r="B77" s="65" t="s">
         <v>154</v>
@@ -7172,7 +7172,7 @@
         <v>4.3729845160460199</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="69"/>
       <c r="B78" s="65" t="s">
         <v>154</v>
@@ -7244,7 +7244,7 @@
         <v>2.2278936851847599</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="69"/>
       <c r="B79" s="78" t="s">
         <v>155</v>
@@ -7316,7 +7316,7 @@
         <v>2.5285313594400201</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="69"/>
       <c r="B80" s="65" t="s">
         <v>156</v>
@@ -7388,7 +7388,7 @@
         <v>13.121645225997</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="69"/>
       <c r="B81" s="65" t="s">
         <v>157</v>
@@ -7460,7 +7460,7 @@
         <v>4.3512069731347101</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="69"/>
       <c r="B82" s="65" t="s">
         <v>158</v>
@@ -7532,7 +7532,7 @@
         <v>4.1158376474143799</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69"/>
       <c r="B83" s="65" t="s">
         <v>159</v>
@@ -7604,7 +7604,7 @@
         <v>3.29417573053327</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="69"/>
       <c r="B84" s="83" t="s">
         <v>160</v>
@@ -7676,7 +7676,7 @@
         <v>1.7896779875578399</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="69"/>
       <c r="B85" s="87" t="s">
         <v>161</v>
@@ -7748,7 +7748,7 @@
         <v>1.7836243868224999</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="69"/>
       <c r="B86" s="65" t="s">
         <v>162</v>
@@ -7820,7 +7820,7 @@
         <v>5.7096194782538996</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="69"/>
       <c r="B87" s="65" t="s">
         <v>163</v>
@@ -7892,7 +7892,7 @@
         <v>3.8858592580295999</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="69"/>
       <c r="B88" s="65" t="s">
         <v>164</v>
@@ -7964,7 +7964,7 @@
         <v>8.2762656695110994</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="69"/>
       <c r="B89" s="65" t="s">
         <v>165</v>
@@ -8036,7 +8036,7 @@
         <v>3.9071505995896798</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="69"/>
       <c r="B90" s="78" t="s">
         <v>166</v>
@@ -8108,7 +8108,7 @@
         <v>2.7625078181379998</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="69"/>
       <c r="B91" s="65" t="s">
         <v>167</v>
@@ -8180,7 +8180,7 @@
         <v>3.37911305991457</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="69"/>
       <c r="B92" s="65" t="s">
         <v>168</v>
@@ -8252,7 +8252,7 @@
         <v>1.56738507295569</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="69"/>
       <c r="B93" s="65" t="s">
         <v>169</v>
@@ -8324,7 +8324,7 @@
         <v>4.1894155578781396</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="69"/>
       <c r="B94" s="65" t="s">
         <v>170</v>
@@ -8396,7 +8396,7 @@
         <v>5.0786115752462404</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="69"/>
       <c r="B95" s="65" t="s">
         <v>171</v>
@@ -8468,7 +8468,7 @@
         <v>1.7584867263350099</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="69"/>
       <c r="B96" s="65" t="s">
         <v>172</v>
@@ -8540,7 +8540,7 @@
         <v>2.2443726631705898</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="69"/>
       <c r="B97" s="83" t="s">
         <v>173</v>
@@ -8612,7 +8612,7 @@
         <v>4.0437551957046596</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="69"/>
       <c r="B98" s="78" t="s">
         <v>174</v>
@@ -8684,7 +8684,7 @@
         <v>5.1411644661273099</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="89"/>
       <c r="B99" s="90"/>
       <c r="C99" s="91"/>
@@ -8710,7 +8710,7 @@
       <c r="W99" s="91"/>
       <c r="X99" s="91"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>175</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="W100" s="92"/>
       <c r="X100" s="92"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8764,7 +8764,7 @@
       <c r="W101" s="92"/>
       <c r="X101" s="92"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>177</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="W102" s="92"/>
       <c r="X102" s="92"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>178</v>
       </c>
@@ -8818,7 +8818,7 @@
       <c r="W103" s="92"/>
       <c r="X103" s="92"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>179</v>
       </c>
@@ -8845,7 +8845,7 @@
       <c r="W104" s="92"/>
       <c r="X104" s="92"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C105" s="92"/>
       <c r="D105" s="92"/>
       <c r="E105" s="92"/>
@@ -8869,7 +8869,7 @@
       <c r="W105" s="92"/>
       <c r="X105" s="92"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B106" s="93"/>
       <c r="C106" s="92"/>
       <c r="D106" s="92"/>
@@ -8894,7 +8894,7 @@
       <c r="W106" s="92"/>
       <c r="X106" s="92"/>
     </row>
-    <row r="107" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="94" t="s">
         <v>180</v>
       </c>
@@ -8921,7 +8921,7 @@
       <c r="W107" s="92"/>
       <c r="X107" s="92"/>
     </row>
-    <row r="108" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="94"/>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
@@ -8946,7 +8946,7 @@
       <c r="W108" s="92"/>
       <c r="X108" s="92"/>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>182</v>
       </c>
@@ -8973,7 +8973,7 @@
       <c r="W109" s="92"/>
       <c r="X109" s="92"/>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>183</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="W110" s="92"/>
       <c r="X110" s="92"/>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B111" s="96" t="s">
         <v>184</v>
       </c>
@@ -9027,7 +9027,7 @@
       <c r="W111" s="92"/>
       <c r="X111" s="92"/>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>181</v>
       </c>
@@ -9054,7 +9054,7 @@
       <c r="W112" s="92"/>
       <c r="X112" s="92"/>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="92"/>
       <c r="D113" s="92"/>
@@ -9079,7 +9079,7 @@
       <c r="W113" s="92"/>
       <c r="X113" s="92"/>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="92"/>
       <c r="D114" s="92"/>
@@ -9106,11 +9106,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{853F70E1-EFF8-45CE-A485-6C5FE661F070}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EA924EE3-AD8B-4D3E-8D44-7F7D1242A37C}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{929F5DD1-1115-4E89-B754-EAE253723FA3}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{153573F1-7E8B-49B9-B71B-62806D16F621}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{FA197A86-18E6-4C09-8DBD-B73A5B0086A7}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{578CBE44-92B8-41C4-8023-9E0B6159AFBD}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B7594A99-CB05-4C05-9A25-BD146FF9C9FE}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{D7498487-E1AA-4327-8557-DA61EECBD895}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{57A50BD6-D019-4C78-BBEC-543DD152D6A1}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{690F5114-34EB-4079-ABA8-B21D1F226676}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68D562BD-9CA6-44BC-BFF4-0F31CE15F94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A958C15-DFF8-4879-A2E1-6301136B9CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3395D8-0377-4C1A-965B-6AEAFF936377}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AF1BCFDA-E33A-4B79-A283-88CAE571433C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,13 +727,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -949,7 +942,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1223,10 +1216,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1542,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99466F07-B229-488C-A75A-0840334699D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF99957-0D81-4780-BD96-EEFCA667B4C5}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8870,7 +8862,6 @@
       <c r="X105" s="92"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B106" s="93"/>
       <c r="C106" s="92"/>
       <c r="D106" s="92"/>
       <c r="E106" s="92"/>
@@ -8895,7 +8886,7 @@
       <c r="X106" s="92"/>
     </row>
     <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="94" t="s">
+      <c r="B107" s="93" t="s">
         <v>180</v>
       </c>
       <c r="C107" s="92"/>
@@ -8922,7 +8913,7 @@
       <c r="X107" s="92"/>
     </row>
     <row r="108" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="94"/>
+      <c r="B108" s="93"/>
       <c r="C108" s="92"/>
       <c r="D108" s="92"/>
       <c r="E108" s="92"/>
@@ -9001,7 +8992,7 @@
       <c r="X110" s="92"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B111" s="96" t="s">
+      <c r="B111" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C111" s="92"/>
@@ -9028,7 +9019,7 @@
       <c r="X111" s="92"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="94" t="s">
         <v>181</v>
       </c>
       <c r="C112" s="92"/>
@@ -9106,11 +9097,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{578CBE44-92B8-41C4-8023-9E0B6159AFBD}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B7594A99-CB05-4C05-9A25-BD146FF9C9FE}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{D7498487-E1AA-4327-8557-DA61EECBD895}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{57A50BD6-D019-4C78-BBEC-543DD152D6A1}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{690F5114-34EB-4079-ABA8-B21D1F226676}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{83CCC002-23C4-40CF-AFE4-2747DDCF6CA7}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{C62184D3-ECA9-4431-9367-860954EE27AD}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{9352EA3E-29DD-43FF-ADFB-733BFDB2BD97}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{845F9BA6-3C52-4999-A7B0-B11B6DBA9C04}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{5CF9D553-9C70-4364-B6EF-D8ECFD7CAD93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab27.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A958C15-DFF8-4879-A2E1-6301136B9CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F48FC181-3D79-429A-BE56-5E4F836F5FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AF1BCFDA-E33A-4B79-A283-88CAE571433C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{577047D4-09AE-41F8-8FFC-453C0304914E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab27" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="187">
   <si>
     <t>Tableau 27 : Origine et destination géographiques de la valeur ajoutée</t>
   </si>
@@ -497,13 +497,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1534,7 +1540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF99957-0D81-4780-BD96-EEFCA667B4C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F638F02-CE87-41B0-8D42-10A5930FE4E3}">
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -6879,7 +6885,7 @@
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="69"/>
       <c r="B74" s="65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C74" s="66">
         <v>82261.216</v>
@@ -6951,7 +6957,7 @@
     <row r="75" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="69"/>
       <c r="B75" s="65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C75" s="66">
         <v>21236.4882</v>
@@ -7023,7 +7029,7 @@
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="69"/>
       <c r="B76" s="83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" s="84">
         <v>989383.77099999995</v>
@@ -7095,7 +7101,7 @@
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="69"/>
       <c r="B77" s="65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="66">
         <v>448368.68969999999</v>
@@ -7167,7 +7173,7 @@
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="69"/>
       <c r="B78" s="65" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C78" s="66">
         <v>4813890.0379999997</v>
@@ -7239,7 +7245,7 @@
     <row r="79" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="69"/>
       <c r="B79" s="78" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C79" s="79">
         <v>9610703.6919999998</v>
@@ -7311,7 +7317,7 @@
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="69"/>
       <c r="B80" s="65" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C80" s="66">
         <v>86039.054900000003</v>
@@ -7383,7 +7389,7 @@
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="69"/>
       <c r="B81" s="65" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C81" s="66">
         <v>809745.20113475504</v>
@@ -7455,7 +7461,7 @@
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="69"/>
       <c r="B82" s="65" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C82" s="66">
         <v>207627.37916000001</v>
@@ -7527,7 +7533,7 @@
     <row r="83" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="69"/>
       <c r="B83" s="65" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C83" s="66">
         <v>13433048.048420001</v>
@@ -7599,7 +7605,7 @@
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="69"/>
       <c r="B84" s="83" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C84" s="84">
         <v>14859.438459999999</v>
@@ -7671,7 +7677,7 @@
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="69"/>
       <c r="B85" s="87" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C85" s="88">
         <v>17639.2019</v>
@@ -7743,7 +7749,7 @@
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="69"/>
       <c r="B86" s="65" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C86" s="66">
         <v>177749.2298</v>
@@ -7815,7 +7821,7 @@
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="69"/>
       <c r="B87" s="65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C87" s="66">
         <v>624472.47750000004</v>
@@ -7887,7 +7893,7 @@
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="69"/>
       <c r="B88" s="65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C88" s="66">
         <v>100830.99400000001</v>
@@ -7959,7 +7965,7 @@
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="69"/>
       <c r="B89" s="65" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C89" s="66">
         <v>3851786.00743475</v>
@@ -8031,7 +8037,7 @@
     <row r="90" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="69"/>
       <c r="B90" s="78" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C90" s="79">
         <v>9712587.2445200104</v>
@@ -8103,7 +8109,7 @@
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="69"/>
       <c r="B91" s="65" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C91" s="66">
         <v>45550.989560000002</v>
@@ -8175,7 +8181,7 @@
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="69"/>
       <c r="B92" s="65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C92" s="66">
         <v>32225.283500000001</v>
@@ -8247,7 +8253,7 @@
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="69"/>
       <c r="B93" s="65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C93" s="66">
         <v>2500.1259</v>
@@ -8319,7 +8325,7 @@
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="69"/>
       <c r="B94" s="65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C94" s="66">
         <v>161725.27220000001</v>
@@ -8391,7 +8397,7 @@
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="69"/>
       <c r="B95" s="65" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C95" s="66">
         <v>14456.582</v>
@@ -8463,7 +8469,7 @@
     <row r="96" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="69"/>
       <c r="B96" s="65" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C96" s="66">
         <v>83724.513399999996</v>
@@ -8535,7 +8541,7 @@
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="69"/>
       <c r="B97" s="83" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C97" s="84">
         <v>93120.016619999995</v>
@@ -8607,7 +8613,7 @@
     <row r="98" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="69"/>
       <c r="B98" s="78" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C98" s="79">
         <v>154986.9198</v>
@@ -8704,7 +8710,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C100" s="92"/>
       <c r="D100" s="92"/>
@@ -8731,7 +8737,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C101" s="92"/>
       <c r="D101" s="92"/>
@@ -8758,7 +8764,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C102" s="92"/>
       <c r="D102" s="92"/>
@@ -8785,7 +8791,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C103" s="92"/>
       <c r="D103" s="92"/>
@@ -8812,7 +8818,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C104" s="92"/>
       <c r="D104" s="92"/>
@@ -8887,7 +8893,7 @@
     </row>
     <row r="107" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C107" s="92"/>
       <c r="D107" s="92"/>
@@ -8939,7 +8945,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C109" s="92"/>
       <c r="D109" s="92"/>
@@ -8966,7 +8972,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C110" s="92"/>
       <c r="D110" s="92"/>
@@ -8993,7 +8999,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B111" s="94" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C111" s="92"/>
       <c r="D111" s="92"/>
@@ -9020,7 +9026,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B112" s="94" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C112" s="92"/>
       <c r="D112" s="92"/>
@@ -9097,11 +9103,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{83CCC002-23C4-40CF-AFE4-2747DDCF6CA7}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{C62184D3-ECA9-4431-9367-860954EE27AD}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{9352EA3E-29DD-43FF-ADFB-733BFDB2BD97}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{845F9BA6-3C52-4999-A7B0-B11B6DBA9C04}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{5CF9D553-9C70-4364-B6EF-D8ECFD7CAD93}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C3DD7FAC-BB11-4BAD-A6AC-ACB710A1A965}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{152037B7-7641-4E9E-9841-CB5CD92A47D1}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{75B73915-2852-419F-A650-1567F881E0AF}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{2510F6E3-242F-4981-946A-628268A9FF3D}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{7CD245E2-C5D4-47CF-9B05-64C74782B70E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
